--- a/outputs-HGR-r202-archive/g__UMGS1370.xlsx
+++ b/outputs-HGR-r202-archive/g__UMGS1370.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,23 +460,33 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT13897.fa</t>
+          <t>even_MAG-GUT66378.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1172681503835143</v>
+        <v>0.06995035993880661</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8827318496164857</v>
+        <v>0.9300496400611934</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8827318496164857</v>
+        <v>0.9300496400611934</v>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>s__UMGS1370 sp900551135</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>s__UMGS1370 sp900551135</t>
         </is>
@@ -485,19 +495,24 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT78571.fa</t>
+          <t>even_MAG-GUT66382.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.07821147358869651</v>
+        <v>0.04358882487501536</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9217885264113035</v>
+        <v>0.9564111751249846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9217885264113035</v>
+        <v>0.9564111751249846</v>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>s__UMGS1370 sp900551135</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>s__UMGS1370 sp900551135</t>
         </is>
